--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="710">
   <si>
     <t>ClassName</t>
   </si>
@@ -330,7 +330,8 @@
     <t>org:Site</t>
   </si>
   <si>
-    <t>Conditions and stipulations about where and how to access the procurement documents.</t>
+    <t>Conditions and stipulations about where and how to access the procurement documents.
+WG Approval 09/03/2021</t>
   </si>
   <si>
     <t>The particulars of the place where a person or an organisation is located.
@@ -1448,6 +1449,15 @@
     <t>epo:AmountValue</t>
   </si>
   <si>
+    <t>epo:UnitCodeListAgencyID</t>
+  </si>
+  <si>
+    <t>epo:UnitCodeListAgencyName</t>
+  </si>
+  <si>
+    <t>epo:UnitCodeListID</t>
+  </si>
+  <si>
     <t>epo:IdentifierValue</t>
   </si>
   <si>
@@ -1479,15 +1489,6 @@
   </si>
   <si>
     <t>epo:QuantityValue</t>
-  </si>
-  <si>
-    <t>epo:UnitCodeListAgencyID</t>
-  </si>
-  <si>
-    <t>epo:UnitCodeListAgencyName</t>
-  </si>
-  <si>
-    <t>epo:UnitCodeListID</t>
   </si>
   <si>
     <t>epo:UnitDescription</t>
@@ -1497,8 +1498,57 @@
 WG Approval 10/10/2019</t>
   </si>
   <si>
+    <t>An explanation about the reasons why some procurement documents are restricted.
+WG Approval 09/03/2021</t>
+  </si>
+  <si>
     <t>The time limit for requesting further information.
 WG Approval 03/10/2019</t>
+  </si>
+  <si>
+    <t>Web page where the procurement documents can be downloaded.
+WG Approval 09/03/2021</t>
+  </si>
+  <si>
+    <t>An alternative name for the street used to further clarify the address.
+WG Approval 09/03/2021</t>
+  </si>
+  <si>
+    <t>A name for an area containing one or several buildings.
+WG approval 09/03/2021</t>
+  </si>
+  <si>
+    <t>The name of a building.
+WG Approval 09/03/2021</t>
+  </si>
+  <si>
+    <t>The number of a building.
+WG Approval 09/03/2021</t>
+  </si>
+  <si>
+    <t>The name of a city, town, or village.
+WG Approval 09/03/2021</t>
+  </si>
+  <si>
+    <t>The name of the subdivision of a city, town, or village.
+Additional Information
+For example, the name of a district or borough.
+WG Approval 09/03/2021</t>
+  </si>
+  <si>
+    <t>The political or statistical subdivision of a country.
+Additional Information
+For example, the name of the county, province, region, or state.</t>
+  </si>
+  <si>
+    <t>An identifier for the country subentity.
+Additional Information
+European Public Administrations frequently use the EUROSTAT's NUTS controlled vocabularies for this.
+WG Approval 09/03/2021</t>
+  </si>
+  <si>
+    <t>An administrative division of a geographical area.
+WG Approval 09/03/2021</t>
   </si>
   <si>
     <t>Identifies the criterion unambiguously and uniquely across all  procurement procedures..</t>
@@ -1732,6 +1782,9 @@
   <si>
     <t>An explanation about the reasons for using the concept. 
 WG Approval 5/11/2019</t>
+  </si>
+  <si>
+    <t>&lt;font color="#ff0000"&gt;A unique identification for the Procedure.&lt;/font&gt;</t>
   </si>
   <si>
     <t>Notes: Date when a record is acknowledged by an organisation.
@@ -2327,18 +2380,15 @@
     <t>The type of unit of measure.</t>
   </si>
   <si>
+    <t>The identification of the agency that maintains the quantity unit code list.</t>
+  </si>
+  <si>
+    <t>The quantity unit code list.</t>
+  </si>
+  <si>
     <t>The numeric value of the quantity, including decimals.</t>
   </si>
   <si>
-    <t>The unit of the quantity.</t>
-  </si>
-  <si>
-    <t>The identification of the agency that maintains the quantity unit code list.</t>
-  </si>
-  <si>
-    <t>The quantity unit code list.</t>
-  </si>
-  <si>
     <t>epo:Indicator</t>
   </si>
   <si>
@@ -2522,6 +2572,9 @@
     <t>at-voc:missing-info-submission</t>
   </si>
   <si>
+    <t>at-voc:measurement-unit</t>
+  </si>
+  <si>
     <t>at-voc:main-activity</t>
   </si>
   <si>
@@ -2552,6 +2605,9 @@
     <t>at-voc:direct-award-justification</t>
   </si>
   <si>
+    <t>at-voc:currency</t>
+  </si>
+  <si>
     <t>at-voc:cpv</t>
   </si>
   <si>
@@ -2589,45 +2645,16 @@
   </si>
   <si>
     <t>CodeListName</t>
-  </si>
-  <si>
-    <t>A unique identification for the Procedure.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Conditions and stipulations about where and how to access the procurement documents.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WG Approval 09/03/2021</t>
-    </r>
-  </si>
-  <si>
-    <t>epo:Department (to be removed)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2653,23 +2680,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2740,25 +2781,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E346" tableType="xml" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" connectionId="1">
-  <autoFilter ref="A1:E346"/>
-  <sortState ref="A2:E346">
-    <sortCondition ref="A1:A346"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E347" tableType="xml" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" connectionId="1">
+  <autoFilter ref="A1:E347"/>
+  <sortState ref="A2:E347">
+    <sortCondition ref="A1:A347"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="ClassName" name="ClassName" dataDxfId="6">
+    <tableColumn id="1" uniqueName="ClassName" name="ClassName" dataDxfId="12">
       <xmlColumnPr mapId="1" xpath="/Glossary/Class/ClassName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ClassDefinition" name="ClassDefinition" dataDxfId="5">
+    <tableColumn id="2" uniqueName="ClassDefinition" name="ClassDefinition" dataDxfId="11">
       <xmlColumnPr mapId="1" xpath="/Glossary/Class/ClassDefinition" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="AttributeName" name="AttributeName" dataDxfId="4">
+    <tableColumn id="3" uniqueName="AttributeName" name="AttributeName" dataDxfId="10">
       <xmlColumnPr mapId="1" xpath="/Glossary/Class/Attribute/AttributeName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="AttributeDefinition" name="AttributeDefinition" dataDxfId="3">
+    <tableColumn id="4" uniqueName="AttributeDefinition" name="AttributeDefinition" dataDxfId="9">
       <xmlColumnPr mapId="1" xpath="/Glossary/Class/Attribute/AttributeDefinition" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="AttributeType" name="AttributeType" dataDxfId="2">
+    <tableColumn id="5" uniqueName="AttributeType" name="AttributeType" dataDxfId="8">
       <xmlColumnPr mapId="1" xpath="/Glossary/Class/Attribute/AttributeType" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -2767,13 +2808,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D58" totalsRowShown="0">
-  <autoFilter ref="A1:D58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D60" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:D60"/>
+  <sortState ref="A2:D60">
+    <sortCondition ref="A1:A60"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="CodeListName"/>
-    <tableColumn id="2" name="CodeListDefinition"/>
-    <tableColumn id="3" name="AuthorityCode"/>
-    <tableColumn id="4" name="CodeName"/>
+    <tableColumn id="1" name="CodeListName" dataDxfId="5"/>
+    <tableColumn id="2" name="CodeListDefinition" dataDxfId="4"/>
+    <tableColumn id="3" name="AuthorityCode" dataDxfId="3"/>
+    <tableColumn id="4" name="CodeName" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3042,45 +3086,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E346"/>
+  <dimension ref="A1:E347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>698</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>175</v>
@@ -3089,25 +3133,27 @@
         <v>432</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3118,25 +3164,27 @@
         <v>177</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3146,12 +3194,14 @@
       <c r="B6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>436</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3161,12 +3211,14 @@
       <c r="B7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>437</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3176,12 +3228,14 @@
       <c r="B8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3191,12 +3245,14 @@
       <c r="B9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3206,57 +3262,65 @@
       <c r="B10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>440</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>443</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3266,12 +3330,14 @@
       <c r="B14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3281,12 +3347,12 @@
       <c r="B15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>187</v>
+      <c r="C15" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3297,11 +3363,11 @@
         <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>614</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3312,11 +3378,11 @@
         <v>101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>96</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3327,11 +3393,11 @@
         <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3342,11 +3408,11 @@
         <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3357,11 +3423,11 @@
         <v>101</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3372,11 +3438,11 @@
         <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3387,11 +3453,11 @@
         <v>101</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3402,11 +3468,11 @@
         <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3417,11 +3483,11 @@
         <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3432,11 +3498,11 @@
         <v>101</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3447,11 +3513,11 @@
         <v>101</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3462,26 +3528,26 @@
         <v>101</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>616</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3492,26 +3558,26 @@
         <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>609</v>
+      </c>
       <c r="E30" s="2" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3520,13 +3586,13 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3535,47 +3601,37 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>598</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>434</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>435</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3586,11 +3642,13 @@
         <v>103</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>445</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>617</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3601,13 +3659,13 @@
         <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3618,13 +3676,11 @@
         <v>103</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>437</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3635,13 +3691,13 @@
         <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3652,11 +3708,13 @@
         <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="E39" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3667,11 +3725,13 @@
         <v>103</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="E40" s="2" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3682,11 +3742,11 @@
         <v>103</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3697,11 +3757,11 @@
         <v>103</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3712,43 +3772,41 @@
         <v>103</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>439</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3759,14 +3817,16 @@
         <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>450</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>9</v>
       </c>
@@ -3774,82 +3834,80 @@
         <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="E51" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -3857,13 +3915,13 @@
         <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3874,16 +3932,14 @@
         <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>445</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
@@ -3891,111 +3947,111 @@
         <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="D57" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>448</v>
-      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
@@ -4003,13 +4059,13 @@
         <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4020,13 +4076,13 @@
         <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4037,50 +4093,50 @@
         <v>111</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="D66" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>18</v>
       </c>
@@ -4088,11 +4144,13 @@
         <v>112</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="E67" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4103,13 +4161,13 @@
         <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4120,47 +4178,45 @@
         <v>112</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4171,13 +4227,13 @@
         <v>113</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4188,13 +4244,13 @@
         <v>113</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4205,45 +4261,45 @@
         <v>113</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>460</v>
-      </c>
+      <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -4254,16 +4310,16 @@
         <v>114</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>20</v>
       </c>
@@ -4271,59 +4327,59 @@
         <v>114</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>22</v>
       </c>
@@ -4331,87 +4387,89 @@
         <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="D85" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="D86" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>243</v>
-      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
-        <v>613</v>
-      </c>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -4421,13 +4479,13 @@
         <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4438,14 +4496,14 @@
         <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>25</v>
       </c>
@@ -4453,13 +4511,13 @@
         <v>118</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4470,16 +4528,14 @@
         <v>118</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>469</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>25</v>
       </c>
@@ -4487,13 +4543,13 @@
         <v>118</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4504,16 +4560,16 @@
         <v>118</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>25</v>
       </c>
@@ -4521,16 +4577,16 @@
         <v>118</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>25</v>
       </c>
@@ -4538,16 +4594,16 @@
         <v>118</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>25</v>
       </c>
@@ -4555,16 +4611,16 @@
         <v>118</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>25</v>
       </c>
@@ -4572,16 +4628,16 @@
         <v>118</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>25</v>
       </c>
@@ -4589,48 +4645,50 @@
         <v>118</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D100" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>487</v>
+      </c>
       <c r="E100" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>26</v>
       </c>
@@ -4638,16 +4696,16 @@
         <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>26</v>
       </c>
@@ -4655,81 +4713,79 @@
         <v>119</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="D104" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="D105" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="D106" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4740,13 +4796,13 @@
         <v>121</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>618</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4757,13 +4813,13 @@
         <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4774,13 +4830,13 @@
         <v>121</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4791,13 +4847,13 @@
         <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>96</v>
+        <v>627</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4808,106 +4864,108 @@
         <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D114" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>499</v>
+      </c>
       <c r="E114" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B115" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C115" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>488</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>125</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>33</v>
       </c>
@@ -4915,11 +4973,13 @@
         <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D118" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>500</v>
+      </c>
       <c r="E118" s="2" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4930,96 +4990,92 @@
         <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="D122" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>38</v>
       </c>
@@ -5027,13 +5083,13 @@
         <v>129</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -5044,45 +5100,47 @@
         <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="D129" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="240" x14ac:dyDescent="0.25">
@@ -5093,60 +5151,58 @@
         <v>130</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>600</v>
-      </c>
+      <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5157,13 +5213,13 @@
         <v>172</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5174,13 +5230,13 @@
         <v>172</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5191,13 +5247,13 @@
         <v>172</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5208,13 +5264,13 @@
         <v>172</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5225,13 +5281,13 @@
         <v>172</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5242,56 +5298,62 @@
         <v>172</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>454</v>
-      </c>
+      <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5300,66 +5362,68 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>494</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D143" s="2"/>
       <c r="E143" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D146" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="E146" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2" t="s">
-        <v>282</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C147" s="2"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="2" t="s">
-        <v>614</v>
-      </c>
+      <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
@@ -5367,46 +5431,40 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>494</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>45</v>
       </c>
@@ -5414,13 +5472,11 @@
         <v>134</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>496</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D151" s="2"/>
       <c r="E151" s="2" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5431,14 +5487,16 @@
         <v>134</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D152" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>506</v>
+      </c>
       <c r="E152" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>45</v>
       </c>
@@ -5446,14 +5504,16 @@
         <v>134</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D153" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="E153" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>45</v>
       </c>
@@ -5461,16 +5521,14 @@
         <v>134</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>459</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D154" s="2"/>
       <c r="E154" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>45</v>
       </c>
@@ -5478,16 +5536,14 @@
         <v>134</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>497</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D155" s="2"/>
       <c r="E155" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>45</v>
       </c>
@@ -5495,16 +5551,16 @@
         <v>134</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>45</v>
       </c>
@@ -5512,16 +5568,16 @@
         <v>134</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>45</v>
       </c>
@@ -5529,14 +5585,16 @@
         <v>134</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D158" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="E158" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>45</v>
       </c>
@@ -5544,43 +5602,43 @@
         <v>134</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D159" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>511</v>
+      </c>
       <c r="E159" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>494</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D161" s="2"/>
       <c r="E161" s="2" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="240" x14ac:dyDescent="0.25">
@@ -5591,415 +5649,413 @@
         <v>135</v>
       </c>
       <c r="C162" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="D164" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="B170" s="2"/>
-      <c r="C170" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D172" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>513</v>
+      </c>
       <c r="E172" s="2" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B175" s="2"/>
       <c r="C175" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B177" s="2"/>
       <c r="C177" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>517</v>
-      </c>
+      <c r="D188" s="2"/>
       <c r="E188" s="2" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6010,88 +6066,98 @@
         <v>138</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>205</v>
+        <v>308</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D190" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>526</v>
+      </c>
       <c r="E190" s="2" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D191" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="E191" s="2" t="s">
-        <v>614</v>
+        <v>97</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D192" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="E192" s="2" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D193" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>529</v>
+      </c>
       <c r="E193" s="2" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D194" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>530</v>
+      </c>
       <c r="E194" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6102,11 +6168,11 @@
         <v>139</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6117,11 +6183,11 @@
         <v>139</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6132,11 +6198,11 @@
         <v>139</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6147,11 +6213,11 @@
         <v>139</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>189</v>
+        <v>316</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2" t="s">
-        <v>96</v>
+        <v>625</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6162,90 +6228,86 @@
         <v>139</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>172</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="D200" s="2"/>
       <c r="E200" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>459</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D201" s="2"/>
       <c r="E201" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6256,14 +6318,16 @@
         <v>140</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D205" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="E205" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>55</v>
       </c>
@@ -6271,141 +6335,135 @@
         <v>140</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+      <c r="D211" s="2"/>
+      <c r="E211" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C212" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D207" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+      <c r="D212" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2" t="s">
+      <c r="B213" s="2"/>
+      <c r="C213" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+      <c r="D213" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2" t="s">
+      <c r="B214" s="2"/>
+      <c r="C214" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E209" s="2" t="s">
+      <c r="D214" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6416,13 +6474,13 @@
         <v>142</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6433,13 +6491,13 @@
         <v>142</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6450,13 +6508,11 @@
         <v>142</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>526</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6467,16 +6523,16 @@
         <v>142</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>58</v>
       </c>
@@ -6484,13 +6540,13 @@
         <v>142</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>333</v>
+        <v>189</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>617</v>
+        <v>96</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6501,13 +6557,13 @@
         <v>142</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>334</v>
+        <v>205</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6518,11 +6574,13 @@
         <v>142</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D221" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="E221" s="2" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6533,11 +6591,13 @@
         <v>142</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D222" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>538</v>
+      </c>
       <c r="E222" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6548,11 +6608,13 @@
         <v>142</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D223" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>539</v>
+      </c>
       <c r="E223" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6563,16 +6625,16 @@
         <v>142</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>58</v>
       </c>
@@ -6580,375 +6642,373 @@
         <v>142</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>532</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>533</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
+      <c r="D236" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B237" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
+      <c r="D237" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2" t="s">
+      <c r="D238" s="2"/>
+      <c r="E238" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
+    <row r="239" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
+      <c r="D239" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>618</v>
-      </c>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C244" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D241" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
+      <c r="D246" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-    </row>
-    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B248" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="1:5" ht="270" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="270" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="270" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="270" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="270" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>614</v>
-      </c>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
@@ -6958,11 +7018,13 @@
         <v>151</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D249" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="E249" s="2" t="s">
-        <v>616</v>
+        <v>98</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -6973,98 +7035,92 @@
         <v>151</v>
       </c>
       <c r="C250" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="D255" s="2" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -7075,60 +7131,60 @@
         <v>174</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D256" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>623</v>
+      </c>
       <c r="E256" s="2" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B257" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="C257" s="2" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
+      <c r="C258" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
+      <c r="E258" s="2" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
     </row>
-    <row r="260" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>615</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
@@ -7138,36 +7194,38 @@
         <v>152</v>
       </c>
       <c r="C261" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
+      <c r="D262" s="2"/>
+      <c r="E262" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-    </row>
-    <row r="263" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>354</v>
-      </c>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
       <c r="D263" s="2"/>
-      <c r="E263" s="2" t="s">
-        <v>614</v>
-      </c>
+      <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
@@ -7177,11 +7235,11 @@
         <v>153</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2" t="s">
-        <v>228</v>
+        <v>625</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7192,28 +7250,28 @@
         <v>153</v>
       </c>
       <c r="C265" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D266" s="2"/>
+      <c r="D266" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="E266" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -7224,28 +7282,26 @@
         <v>154</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>546</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D268" s="2"/>
       <c r="E268" s="2" t="s">
-        <v>228</v>
+        <v>625</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -7256,33 +7312,33 @@
         <v>155</v>
       </c>
       <c r="C269" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D269" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="D270" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>76</v>
       </c>
@@ -7290,11 +7346,13 @@
         <v>156</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D271" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="E271" s="2" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7305,11 +7363,11 @@
         <v>156</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>358</v>
+        <v>203</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7320,14 +7378,14 @@
         <v>156</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>76</v>
       </c>
@@ -7335,16 +7393,14 @@
         <v>156</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>549</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="D274" s="2"/>
       <c r="E274" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>76</v>
       </c>
@@ -7352,16 +7408,16 @@
         <v>156</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>208</v>
+        <v>360</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>76</v>
       </c>
@@ -7369,13 +7425,13 @@
         <v>156</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7386,43 +7442,43 @@
         <v>156</v>
       </c>
       <c r="C277" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="285" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>552</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D279" s="2"/>
       <c r="E279" s="2" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7433,13 +7489,13 @@
         <v>158</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7450,13 +7506,13 @@
         <v>158</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7467,13 +7523,13 @@
         <v>158</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7484,13 +7540,13 @@
         <v>158</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7501,13 +7557,13 @@
         <v>158</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7518,13 +7574,13 @@
         <v>158</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7535,13 +7591,13 @@
         <v>158</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7552,13 +7608,13 @@
         <v>158</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7569,13 +7625,13 @@
         <v>158</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7586,13 +7642,13 @@
         <v>158</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>95</v>
+        <v>631</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7603,10 +7659,10 @@
         <v>158</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>95</v>
@@ -7620,13 +7676,13 @@
         <v>158</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>620</v>
+        <v>95</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7637,13 +7693,13 @@
         <v>158</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7654,13 +7710,13 @@
         <v>158</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7671,13 +7727,13 @@
         <v>158</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7688,13 +7744,13 @@
         <v>158</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7705,13 +7761,13 @@
         <v>158</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7722,11 +7778,13 @@
         <v>158</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D297" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="E297" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7737,47 +7795,45 @@
         <v>158</v>
       </c>
       <c r="C298" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D298" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
+      <c r="D299" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B300" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C300" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D299" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="D300" s="2" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7788,44 +7844,44 @@
         <v>160</v>
       </c>
       <c r="C301" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D301" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
+      <c r="D302" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B303" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-    </row>
-    <row r="303" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
+      <c r="E303" s="2"/>
+    </row>
+    <row r="304" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>82</v>
       </c>
@@ -7833,13 +7889,13 @@
         <v>162</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>383</v>
+        <v>205</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -7850,16 +7906,16 @@
         <v>162</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>82</v>
       </c>
@@ -7867,16 +7923,16 @@
         <v>162</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>82</v>
       </c>
@@ -7884,11 +7940,13 @@
         <v>162</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D307" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>587</v>
+      </c>
       <c r="E307" s="2" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7899,11 +7957,11 @@
         <v>162</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7914,11 +7972,11 @@
         <v>162</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7929,28 +7987,26 @@
         <v>162</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>576</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="D311" s="2"/>
       <c r="E311" s="2" t="s">
-        <v>228</v>
+        <v>624</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -7961,13 +8017,13 @@
         <v>163</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>616</v>
+        <v>228</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -7978,16 +8034,16 @@
         <v>163</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>83</v>
       </c>
@@ -7995,16 +8051,16 @@
         <v>163</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>83</v>
       </c>
@@ -8012,13 +8068,13 @@
         <v>163</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8029,13 +8085,13 @@
         <v>163</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8046,13 +8102,13 @@
         <v>163</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8063,16 +8119,16 @@
         <v>163</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>83</v>
       </c>
@@ -8080,16 +8136,16 @@
         <v>163</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>83</v>
       </c>
@@ -8097,13 +8153,13 @@
         <v>163</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8114,13 +8170,13 @@
         <v>163</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8131,13 +8187,13 @@
         <v>163</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8148,28 +8204,30 @@
         <v>163</v>
       </c>
       <c r="C323" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C324" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D323" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D324" s="2"/>
+      <c r="D324" s="2" t="s">
+        <v>600</v>
+      </c>
       <c r="E324" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -8180,58 +8238,56 @@
         <v>164</v>
       </c>
       <c r="C325" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D325" s="2"/>
+      <c r="E325" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D325" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B326" s="2"/>
-      <c r="C326" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D326" s="2"/>
+      <c r="D326" s="2" t="s">
+        <v>465</v>
+      </c>
       <c r="E326" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D327" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="D328" s="2" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8242,28 +8298,28 @@
         <v>165</v>
       </c>
       <c r="C329" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2" t="s">
+      <c r="D330" s="2"/>
+      <c r="E330" s="2" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -8274,51 +8330,51 @@
         <v>166</v>
       </c>
       <c r="C331" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2" t="s">
+      <c r="D332" s="2"/>
+      <c r="E332" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B332" s="2"/>
-      <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2"/>
-    </row>
-    <row r="333" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
     </row>
-    <row r="334" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2"/>
+    </row>
+    <row r="335" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>90</v>
       </c>
@@ -8326,26 +8382,28 @@
         <v>168</v>
       </c>
       <c r="C335" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2" t="s">
-        <v>617</v>
+        <v>96</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -8356,28 +8414,28 @@
         <v>169</v>
       </c>
       <c r="C337" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D337" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B338" s="2"/>
-      <c r="C338" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="D338" s="2" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>95</v>
+        <v>628</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -8386,11 +8444,13 @@
       </c>
       <c r="B339" s="2"/>
       <c r="C339" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D339" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>606</v>
+      </c>
       <c r="E339" s="2" t="s">
-        <v>613</v>
+        <v>95</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -8399,86 +8459,99 @@
       </c>
       <c r="B340" s="2"/>
       <c r="C340" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>595</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="D341" s="2"/>
       <c r="E341" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
+      <c r="D344" s="2"/>
+      <c r="E344" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B345" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-    </row>
-    <row r="345" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B346" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B347" s="2"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="2"/>
+      <c r="E347" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8491,540 +8564,559 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="D48" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D42" s="1" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D47" s="1" t="s">
+    </row>
+    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="D58" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="719">
   <si>
     <t>ClassName</t>
   </si>
@@ -1549,6 +1549,44 @@
   <si>
     <t>An administrative division of a geographical area.
 WG Approval 09/03/2021</t>
+  </si>
+  <si>
+    <t>The level of the building
+WG Approval 16/03/2021</t>
+  </si>
+  <si>
+    <t>A unique identifier of the instance of the concept.
+Additional Information
+For example, in the case of the Procurement Identifier, this could be the European Public Procurement Identifier, and/or any other identifier provided by the buyer, the service provider or any other stakeholder.
+WG Approval 12/11/2019</t>
+  </si>
+  <si>
+    <t>The specific identifiable location within a building where mail is delivered.
+WG Approval 16/03/2021</t>
+  </si>
+  <si>
+    <t>The name, expressed as text, of a person or department in an organization to whose attention the incoming mail is directed; corresponds to the printed forms "for the attention of", "FAO", and ATTN:".
+WG Approval 16/03/2021</t>
+  </si>
+  <si>
+    <t>The name, expressed as text, of a person or organization at this address into whose care the incoming mail is entrusted; corresponds to the printed forms "care of" and "c/o".
+WG Approval 16/03/2021</t>
+  </si>
+  <si>
+    <t>An identifier (e.g., a parcel number) for the piece of land associated with this address.
+WG Approval 16/03/2021</t>
+  </si>
+  <si>
+    <t>The postal identifier for this address according to the relevant national postal service, such as a ZIP code or Post Code.
+WG Approval 16/03/2021</t>
+  </si>
+  <si>
+    <t>A post office box number registered for postal delivery by a postal service provider.
+WG Approval 16/03/2021</t>
+  </si>
+  <si>
+    <t>The recognized geographic or economic region or group of countries in which this address is located.
+WG Approval 16/03/2021</t>
   </si>
   <si>
     <t>Identifies the criterion unambiguously and uniquely across all  procurement procedures..</t>
@@ -2808,16 +2846,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D60" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D60" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D60"/>
   <sortState ref="A2:D60">
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="CodeListName" dataDxfId="5"/>
-    <tableColumn id="2" name="CodeListDefinition" dataDxfId="4"/>
-    <tableColumn id="3" name="AuthorityCode" dataDxfId="3"/>
-    <tableColumn id="4" name="CodeName" dataDxfId="2"/>
+    <tableColumn id="1" name="CodeListName" dataDxfId="3"/>
+    <tableColumn id="2" name="CodeListDefinition" dataDxfId="2"/>
+    <tableColumn id="3" name="AuthorityCode" dataDxfId="1"/>
+    <tableColumn id="4" name="CodeName" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3088,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E347"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3133,7 +3171,7 @@
         <v>432</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3150,7 +3188,7 @@
         <v>433</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3184,7 +3222,7 @@
         <v>435</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3201,7 +3239,7 @@
         <v>436</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3218,7 +3256,7 @@
         <v>437</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3235,7 +3273,7 @@
         <v>438</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3252,7 +3290,7 @@
         <v>439</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3269,7 +3307,7 @@
         <v>440</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3286,7 +3324,7 @@
         <v>441</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3303,7 +3341,7 @@
         <v>442</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3320,7 +3358,7 @@
         <v>443</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3337,7 +3375,7 @@
         <v>444</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3350,12 +3388,14 @@
       <c r="C15" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>445</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3365,7 +3405,9 @@
       <c r="C16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>96</v>
       </c>
@@ -3380,12 +3422,14 @@
       <c r="C17" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>447</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -3395,12 +3439,14 @@
       <c r="C18" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -3410,9 +3456,11 @@
       <c r="C19" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3425,12 +3473,14 @@
       <c r="C20" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>450</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -3440,9 +3490,11 @@
       <c r="C21" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3455,12 +3507,14 @@
       <c r="C22" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="E22" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -3470,9 +3524,11 @@
       <c r="C23" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3487,7 +3543,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3502,7 +3558,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3517,7 +3573,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3532,7 +3588,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3562,7 +3618,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3574,10 +3630,10 @@
         <v>415</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3589,10 +3645,10 @@
         <v>416</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,7 +3661,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3618,7 +3674,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3631,7 +3687,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3645,7 +3701,7 @@
         <v>189</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>96</v>
@@ -3662,10 +3718,10 @@
         <v>202</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3680,7 +3736,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3694,10 +3750,10 @@
         <v>204</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3711,10 +3767,10 @@
         <v>205</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3728,10 +3784,10 @@
         <v>206</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3746,7 +3802,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3761,7 +3817,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3776,7 +3832,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3791,7 +3847,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3806,7 +3862,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3820,10 +3876,10 @@
         <v>212</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3838,7 +3894,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3853,7 +3909,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3867,10 +3923,10 @@
         <v>215</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -3884,10 +3940,10 @@
         <v>216</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="210" x14ac:dyDescent="0.25">
@@ -3901,10 +3957,10 @@
         <v>217</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="300" x14ac:dyDescent="0.25">
@@ -3918,10 +3974,10 @@
         <v>218</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3936,7 +3992,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -3950,10 +4006,10 @@
         <v>220</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3967,10 +4023,10 @@
         <v>221</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3985,7 +4041,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="240" x14ac:dyDescent="0.25">
@@ -3999,10 +4055,10 @@
         <v>223</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4048,7 +4104,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -4062,10 +4118,10 @@
         <v>205</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4079,10 +4135,10 @@
         <v>225</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4096,10 +4152,10 @@
         <v>226</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4113,10 +4169,10 @@
         <v>227</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4130,7 +4186,7 @@
         <v>228</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>228</v>
@@ -4147,10 +4203,10 @@
         <v>223</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4164,10 +4220,10 @@
         <v>229</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4182,7 +4238,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4196,10 +4252,10 @@
         <v>230</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4213,10 +4269,10 @@
         <v>231</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4230,10 +4286,10 @@
         <v>232</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4247,10 +4303,10 @@
         <v>233</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4264,10 +4320,10 @@
         <v>234</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4281,10 +4337,10 @@
         <v>235</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4299,7 +4355,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -4313,10 +4369,10 @@
         <v>236</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -4330,10 +4386,10 @@
         <v>237</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -4347,10 +4403,10 @@
         <v>238</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -4390,10 +4446,10 @@
         <v>205</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4407,10 +4463,10 @@
         <v>213</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4425,7 +4481,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -4439,10 +4495,10 @@
         <v>240</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4456,10 +4512,10 @@
         <v>241</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4482,10 +4538,10 @@
         <v>242</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4500,7 +4556,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4514,10 +4570,10 @@
         <v>244</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4532,7 +4588,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4546,10 +4602,10 @@
         <v>246</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4563,10 +4619,10 @@
         <v>247</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -4580,10 +4636,10 @@
         <v>248</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4597,10 +4653,10 @@
         <v>249</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -4614,10 +4670,10 @@
         <v>250</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4631,10 +4687,10 @@
         <v>251</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4648,10 +4704,10 @@
         <v>252</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4665,10 +4721,10 @@
         <v>253</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -4682,10 +4738,10 @@
         <v>254</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4699,10 +4755,10 @@
         <v>255</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4717,7 +4773,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4731,10 +4787,10 @@
         <v>257</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4748,10 +4804,10 @@
         <v>258</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4765,10 +4821,10 @@
         <v>259</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4782,10 +4838,10 @@
         <v>213</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4799,7 +4855,7 @@
         <v>189</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>96</v>
@@ -4816,10 +4872,10 @@
         <v>260</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4833,10 +4889,10 @@
         <v>261</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4850,10 +4906,10 @@
         <v>262</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4867,10 +4923,10 @@
         <v>263</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4884,7 +4940,7 @@
         <v>264</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>96</v>
@@ -4902,7 +4958,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -4916,10 +4972,10 @@
         <v>266</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4934,7 +4990,7 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -4949,7 +5005,7 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4962,7 +5018,7 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -4976,10 +5032,10 @@
         <v>270</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4994,7 +5050,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5009,7 +5065,7 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5024,7 +5080,7 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5038,10 +5094,10 @@
         <v>274</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5086,10 +5142,10 @@
         <v>275</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -5103,10 +5159,10 @@
         <v>276</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -5120,10 +5176,10 @@
         <v>277</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -5137,7 +5193,7 @@
         <v>278</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>98</v>
@@ -5169,10 +5225,10 @@
         <v>231</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="240" x14ac:dyDescent="0.25">
@@ -5187,7 +5243,7 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="210" x14ac:dyDescent="0.25">
@@ -5202,7 +5258,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5216,10 +5272,10 @@
         <v>420</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5233,10 +5289,10 @@
         <v>421</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5250,10 +5306,10 @@
         <v>422</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5267,10 +5323,10 @@
         <v>423</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5284,10 +5340,10 @@
         <v>424</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5301,10 +5357,10 @@
         <v>425</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5318,10 +5374,10 @@
         <v>426</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5335,10 +5391,10 @@
         <v>427</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="360" x14ac:dyDescent="0.25">
@@ -5353,7 +5409,7 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5378,10 +5434,10 @@
         <v>231</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -5393,10 +5449,10 @@
         <v>205</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -5408,10 +5464,10 @@
         <v>280</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5435,7 +5491,7 @@
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -5448,7 +5504,7 @@
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5461,7 +5517,7 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5476,7 +5532,7 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5490,10 +5546,10 @@
         <v>205</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -5507,10 +5563,10 @@
         <v>285</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5540,7 +5596,7 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -5554,10 +5610,10 @@
         <v>236</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="195" x14ac:dyDescent="0.25">
@@ -5571,10 +5627,10 @@
         <v>287</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="195" x14ac:dyDescent="0.25">
@@ -5588,10 +5644,10 @@
         <v>288</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -5605,10 +5661,10 @@
         <v>229</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5623,7 +5679,7 @@
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5638,7 +5694,7 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="240" x14ac:dyDescent="0.25">
@@ -5667,10 +5723,10 @@
         <v>205</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="240" x14ac:dyDescent="0.25">
@@ -5684,10 +5740,10 @@
         <v>236</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5701,10 +5757,10 @@
         <v>428</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5718,10 +5774,10 @@
         <v>429</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5735,10 +5791,10 @@
         <v>417</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5752,10 +5808,10 @@
         <v>418</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5769,10 +5825,10 @@
         <v>419</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5793,10 +5849,10 @@
         <v>291</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -5808,10 +5864,10 @@
         <v>292</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5823,10 +5879,10 @@
         <v>293</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5838,10 +5894,10 @@
         <v>294</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -5853,10 +5909,10 @@
         <v>295</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -5868,10 +5924,10 @@
         <v>296</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -5884,7 +5940,7 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5898,10 +5954,10 @@
         <v>298</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5915,10 +5971,10 @@
         <v>299</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5932,10 +5988,10 @@
         <v>300</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5949,10 +6005,10 @@
         <v>301</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5967,7 +6023,7 @@
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5979,7 +6035,7 @@
         <v>303</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>228</v>
@@ -5994,10 +6050,10 @@
         <v>304</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -6010,7 +6066,7 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -6025,7 +6081,7 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -6039,10 +6095,10 @@
         <v>306</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -6055,7 +6111,7 @@
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6069,10 +6125,10 @@
         <v>308</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6086,10 +6142,10 @@
         <v>309</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6103,7 +6159,7 @@
         <v>310</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>97</v>
@@ -6120,10 +6176,10 @@
         <v>311</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6137,10 +6193,10 @@
         <v>312</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6154,10 +6210,10 @@
         <v>205</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6172,7 +6228,7 @@
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6187,7 +6243,7 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6202,7 +6258,7 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6217,7 +6273,7 @@
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6232,7 +6288,7 @@
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6247,7 +6303,7 @@
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6262,7 +6318,7 @@
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6277,7 +6333,7 @@
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6307,7 +6363,7 @@
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6338,10 +6394,10 @@
         <v>236</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6356,7 +6412,7 @@
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6371,7 +6427,7 @@
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6386,7 +6442,7 @@
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6401,7 +6457,7 @@
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6416,7 +6472,7 @@
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6430,10 +6486,10 @@
         <v>324</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6445,10 +6501,10 @@
         <v>325</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6460,7 +6516,7 @@
         <v>326</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>95</v>
@@ -6477,10 +6533,10 @@
         <v>327</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6494,10 +6550,10 @@
         <v>328</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6512,7 +6568,7 @@
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6526,10 +6582,10 @@
         <v>330</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -6543,7 +6599,7 @@
         <v>189</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>96</v>
@@ -6560,10 +6616,10 @@
         <v>205</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6577,10 +6633,10 @@
         <v>236</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6594,10 +6650,10 @@
         <v>331</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6611,10 +6667,10 @@
         <v>332</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6628,10 +6684,10 @@
         <v>333</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6645,10 +6701,10 @@
         <v>334</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6663,7 +6719,7 @@
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6678,7 +6734,7 @@
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6693,7 +6749,7 @@
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6707,10 +6763,10 @@
         <v>336</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -6724,10 +6780,10 @@
         <v>337</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -6741,7 +6797,7 @@
         <v>177</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>228</v>
@@ -6759,7 +6815,7 @@
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6773,7 +6829,7 @@
         <v>338</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>228</v>
@@ -6790,10 +6846,10 @@
         <v>339</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6807,10 +6863,10 @@
         <v>340</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -6824,10 +6880,10 @@
         <v>231</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -6841,10 +6897,10 @@
         <v>205</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -6873,10 +6929,10 @@
         <v>341</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="300" x14ac:dyDescent="0.25">
@@ -6901,10 +6957,10 @@
         <v>205</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -6933,10 +6989,10 @@
         <v>236</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -6951,7 +7007,7 @@
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -6965,10 +7021,10 @@
         <v>343</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -6982,10 +7038,10 @@
         <v>344</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -7021,7 +7077,7 @@
         <v>345</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>98</v>
@@ -7038,10 +7094,10 @@
         <v>346</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -7056,7 +7112,7 @@
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -7071,7 +7127,7 @@
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -7085,10 +7141,10 @@
         <v>349</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -7103,7 +7159,7 @@
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -7117,10 +7173,10 @@
         <v>351</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -7134,10 +7190,10 @@
         <v>430</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -7152,7 +7208,7 @@
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -7165,7 +7221,7 @@
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -7197,10 +7253,10 @@
         <v>353</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -7215,7 +7271,7 @@
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -7239,7 +7295,7 @@
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7268,10 +7324,10 @@
         <v>356</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -7286,7 +7342,7 @@
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -7301,7 +7357,7 @@
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -7315,7 +7371,7 @@
         <v>357</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>228</v>
@@ -7332,10 +7388,10 @@
         <v>205</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -7349,10 +7405,10 @@
         <v>202</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7367,7 +7423,7 @@
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7382,7 +7438,7 @@
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7397,7 +7453,7 @@
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -7411,10 +7467,10 @@
         <v>360</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -7428,10 +7484,10 @@
         <v>208</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7445,10 +7501,10 @@
         <v>209</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7463,7 +7519,7 @@
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7478,7 +7534,7 @@
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7492,10 +7548,10 @@
         <v>361</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7509,10 +7565,10 @@
         <v>362</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7526,10 +7582,10 @@
         <v>363</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7543,10 +7599,10 @@
         <v>364</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7560,10 +7616,10 @@
         <v>365</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7577,10 +7633,10 @@
         <v>366</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7594,10 +7650,10 @@
         <v>367</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7611,10 +7667,10 @@
         <v>368</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7628,10 +7684,10 @@
         <v>369</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7645,10 +7701,10 @@
         <v>370</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7662,7 +7718,7 @@
         <v>371</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>95</v>
@@ -7679,7 +7735,7 @@
         <v>372</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>95</v>
@@ -7696,10 +7752,10 @@
         <v>373</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7713,10 +7769,10 @@
         <v>374</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7730,10 +7786,10 @@
         <v>375</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7747,10 +7803,10 @@
         <v>376</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7764,10 +7820,10 @@
         <v>377</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7781,10 +7837,10 @@
         <v>378</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7799,7 +7855,7 @@
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -7813,10 +7869,10 @@
         <v>380</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -7830,10 +7886,10 @@
         <v>381</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7847,10 +7903,10 @@
         <v>205</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7864,10 +7920,10 @@
         <v>382</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="195" x14ac:dyDescent="0.25">
@@ -7892,10 +7948,10 @@
         <v>205</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -7909,10 +7965,10 @@
         <v>383</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -7926,10 +7982,10 @@
         <v>384</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -7943,10 +7999,10 @@
         <v>385</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7961,7 +8017,7 @@
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7976,7 +8032,7 @@
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7991,7 +8047,7 @@
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8006,7 +8062,7 @@
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8020,7 +8076,7 @@
         <v>390</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>228</v>
@@ -8037,10 +8093,10 @@
         <v>391</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8054,10 +8110,10 @@
         <v>392</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -8071,10 +8127,10 @@
         <v>393</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8088,10 +8144,10 @@
         <v>394</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8105,10 +8161,10 @@
         <v>395</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8122,10 +8178,10 @@
         <v>396</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8139,10 +8195,10 @@
         <v>397</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="255" x14ac:dyDescent="0.25">
@@ -8156,10 +8212,10 @@
         <v>398</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8173,10 +8229,10 @@
         <v>399</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8190,10 +8246,10 @@
         <v>400</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8207,10 +8263,10 @@
         <v>401</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8224,10 +8280,10 @@
         <v>402</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -8242,7 +8298,7 @@
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -8256,10 +8312,10 @@
         <v>231</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -8272,7 +8328,7 @@
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -8284,10 +8340,10 @@
         <v>404</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8301,10 +8357,10 @@
         <v>205</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -8333,10 +8389,10 @@
         <v>405</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -8385,10 +8441,10 @@
         <v>406</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -8418,7 +8474,7 @@
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -8432,10 +8488,10 @@
         <v>408</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -8447,7 +8503,7 @@
         <v>409</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>95</v>
@@ -8463,7 +8519,7 @@
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -8488,10 +8544,10 @@
         <v>412</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -8503,7 +8559,7 @@
         <v>413</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>95</v>
@@ -8519,7 +8575,7 @@
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="300" x14ac:dyDescent="0.25">
@@ -8566,8 +8622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8575,27 +8631,27 @@
     <col min="1" max="1" width="36.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8603,7 +8659,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8611,7 +8667,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8619,7 +8675,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8627,7 +8683,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8635,7 +8691,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -8643,7 +8699,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -8651,7 +8707,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8659,7 +8715,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -8667,7 +8723,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8675,7 +8731,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8683,7 +8739,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8691,7 +8747,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8699,7 +8755,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8707,7 +8763,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8715,7 +8771,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8723,7 +8779,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8731,7 +8787,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8739,7 +8795,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8747,7 +8803,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8755,7 +8811,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8763,7 +8819,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8771,7 +8827,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8779,7 +8835,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8787,7 +8843,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8795,7 +8851,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8803,7 +8859,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8811,7 +8867,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8819,7 +8875,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8827,7 +8883,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8835,7 +8891,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8843,7 +8899,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8851,7 +8907,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8859,7 +8915,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8867,7 +8923,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8875,7 +8931,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8883,7 +8939,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -8891,7 +8947,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -8899,7 +8955,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -8907,7 +8963,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -8915,208 +8971,208 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
